--- a/root/docs/pick-density-calculator.xlsx
+++ b/root/docs/pick-density-calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chewycomllc-my.sharepoint.com/personal/abhatt_chewy_com/Documents/Desktop/Pick Planning/fc-sci-pick-planning-model/root/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{4D0FFCE1-E525-487D-B46E-3A86FC12B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D91E6A-80EE-4C13-B388-7037F68DDE7B}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{4D0FFCE1-E525-487D-B46E-3A86FC12B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA99622D-D107-4CEA-8C95-65C682EB229D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F9E384C-46B4-44CB-9F2C-B1DF8621CA53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,61 +37,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Distance in ft</t>
-  </si>
-  <si>
-    <t>Total Distance (ft)</t>
-  </si>
-  <si>
-    <t>Pick Density</t>
-  </si>
-  <si>
-    <t>% change (A vs B)</t>
-  </si>
-  <si>
-    <t>Units Picked</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Comparing Pick Density</t>
-  </si>
-  <si>
-    <t>Scenario - B 
-(Baseline)</t>
-  </si>
-  <si>
-    <t>Scenario - A
-(Optimized)</t>
-  </si>
-  <si>
-    <t>Aisles In</t>
-  </si>
-  <si>
-    <t>Aisles Across</t>
-  </si>
-  <si>
-    <t>Aisles Across to In Ratio</t>
-  </si>
-  <si>
-    <t>Aisles In Distance (ft)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Planning Time</t>
+  </si>
+  <si>
+    <t>AVP1</t>
+  </si>
+  <si>
+    <t>Aisles Across to Aisle In Ratio</t>
+  </si>
+  <si>
+    <t>Pick Optimization Model</t>
+  </si>
+  <si>
+    <t>Total Tours</t>
+  </si>
+  <si>
+    <t>Total Units</t>
+  </si>
+  <si>
+    <t>AutoBatching (Real-world)</t>
+  </si>
+  <si>
+    <t>Total Containers</t>
+  </si>
+  <si>
+    <t>Batching Summary</t>
+  </si>
+  <si>
+    <t>Aisles Traveled In - Sum</t>
+  </si>
+  <si>
+    <t>Aisles Traveled Across - Sum</t>
+  </si>
+  <si>
+    <t>Pick Density units per ft. (approx.)</t>
+  </si>
+  <si>
+    <t>Total Distance ft. (approx.)</t>
+  </si>
+  <si>
+    <t>Chase containers batched 
+(PC, VC, RC rules)</t>
+  </si>
+  <si>
+    <t>Critical containers batched
+(slack time &lt; 60 minutes)</t>
+  </si>
+  <si>
+    <t>Length of an Aisle In (ft)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pick Density </t>
+  </si>
+  <si>
+    <t>2. On-time Shipping / 1PY</t>
+  </si>
+  <si>
+    <t>Pick Optimization vs AutoBatching</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Methodology -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given a specific planning time and same inputs (backlog, HC), how does Pick Optimization perform against AutoBatching?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Steps - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provide early projections of our business metrics based on model output.</t>
+  </si>
+  <si>
+    <t>1. Detailed simulations over multiple planning periods - long time horizon.</t>
+  </si>
+  <si>
+    <t>2. Detailed documentation of model I/O, logic, and parameters.</t>
+  </si>
+  <si>
+    <t>Test 1 - Prior to cut window</t>
+  </si>
+  <si>
+    <t>Test 2 - During cut window</t>
+  </si>
+  <si>
+    <t>Test 3 - Late night /  OP mode</t>
+  </si>
+  <si>
+    <t>% Pick Density Change</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1. Pick Density  (directly impacts UPH)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Containers whose original CPT is today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containers whose original CPT is yesterday </t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>1PY</t>
+  </si>
+  <si>
+    <t>2PY</t>
+  </si>
+  <si>
+    <t>Pick UPH</t>
+  </si>
+  <si>
+    <t>1 PY</t>
+  </si>
+  <si>
+    <t>Pending Detailed Sim.</t>
+  </si>
+  <si>
+    <t>AutoBatching (OP Rules Python)</t>
+  </si>
+  <si>
+    <t>1. PC - Priority Chase - specific vet diet and long TNT orders</t>
+  </si>
+  <si>
+    <t>2. RC - Route Chase (between cut / pull typically)</t>
+  </si>
+  <si>
+    <t>3. VC - Variable Chase (extended window of RC - before cut time)</t>
+  </si>
+  <si>
+    <t>4. AC - No route chase rules (edited)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,23 +231,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,33 +290,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -206,6 +445,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,177 +767,976 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE314167-9328-4212-B9B4-AB114E2376D5}">
-  <dimension ref="B2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459DF871-07EF-480A-A434-5C32A82C515D}">
+  <dimension ref="B2:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="26">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45721.458333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>42</v>
+      </c>
+      <c r="D23" s="16">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16">
+        <v>825</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D23*20</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="C25" s="16">
+        <v>3229</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="18">
+        <v>933</v>
+      </c>
+      <c r="D28" s="18">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1475</v>
+      </c>
+      <c r="D29" s="18">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18">
+        <f>C28*C18+(C29/C19)*C18</f>
+        <v>387598.75</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D28*C18+(D29/C19)*C18</f>
+        <v>104354.25</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C31" s="19">
+        <f>C25/C30</f>
+        <v>8.3307802205244471E-3</v>
+      </c>
+      <c r="D31" s="19">
+        <f>D25/D30</f>
+        <v>3.4325386843372455E-2</v>
+      </c>
+      <c r="E31" s="28">
+        <f>(D31-C31)/C31</f>
+        <v>3.1203087747778286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8">
+        <v>340</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45722.583333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="16">
+        <v>69</v>
+      </c>
+      <c r="D46" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1371</v>
+      </c>
+      <c r="D47" s="16">
+        <f>D46*20</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="16">
+        <v>6671</v>
+      </c>
+      <c r="D48" s="16">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="18">
+        <v>1574</v>
+      </c>
+      <c r="D51" s="18">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C52" s="18">
+        <v>2350</v>
+      </c>
+      <c r="D52" s="18">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="18">
+        <f>C51*C41+(C52/C42)*C41</f>
+        <v>651227.5</v>
+      </c>
+      <c r="D53" s="18">
+        <f>D51*C41+(D52/C42)*C41</f>
+        <v>234041.5</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C48/C53</f>
+        <v>1.0243732029129605E-2</v>
+      </c>
+      <c r="D54" s="19">
+        <f>D48/D53</f>
+        <v>2.5756115902521561E-2</v>
+      </c>
+      <c r="E54" s="28">
+        <f>(D54-C54)/C54</f>
+        <v>1.5143293312710777</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8">
+        <v>840</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45726.083333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="16">
+        <v>69</v>
+      </c>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1371</v>
+      </c>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="16">
+        <v>6671</v>
+      </c>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="5"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="C76" s="18">
+        <v>1574</v>
+      </c>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2350</v>
+      </c>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="18">
+        <f>C76*C66+(C77/C67)*C66</f>
+        <v>651227.5</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="19">
+        <f>C73/C78</f>
+        <v>1.0243732029129605E-2</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="28">
+        <f>(D79-C79)/C79</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="7"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="8">
+        <v>840</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="30">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <f>SUM(C92:C93)</f>
+        <v>1050</v>
+      </c>
+      <c r="D95" s="32">
+        <f>D92/C92</f>
+        <v>0.8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="32">
+        <f>D93/C93</f>
+        <v>0.4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="C110" s="4">
+        <v>45722.583333333336</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="24"/>
+      <c r="C114" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="16">
+        <v>69</v>
+      </c>
+      <c r="D116" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5661</v>
-      </c>
-      <c r="E8" s="13">
-        <v>11187</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
+      <c r="C117" s="16">
+        <v>1371</v>
+      </c>
+      <c r="D117" s="16">
+        <f>D116*20</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="16">
+        <v>6029</v>
+      </c>
+      <c r="D118" s="16">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="18">
+        <v>900</v>
+      </c>
+      <c r="D121" s="18">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="18">
+        <v>1091</v>
+      </c>
+      <c r="D122" s="18">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="18">
+        <f>C121*C111+(C122/C112)*C111</f>
+        <v>367501.75</v>
+      </c>
+      <c r="D123" s="18">
+        <f>D121*C111+(D122/C112)*C111</f>
+        <v>234041.5</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="19">
+        <f>C118/C123</f>
+        <v>1.6405364056089528E-2</v>
+      </c>
+      <c r="D124" s="19">
+        <f>D118/D123</f>
+        <v>2.5756115902521561E-2</v>
+      </c>
+      <c r="E124" s="28">
+        <f>(D124-C124)/C124</f>
+        <v>0.56998136795148513</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="35"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="7"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="13">
-        <f>D8*C4</f>
-        <v>2179485</v>
-      </c>
-      <c r="E9" s="13">
-        <f>(E8/C5)*C4</f>
-        <v>215349.75</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9+E9</f>
-        <v>2394834.75</v>
-      </c>
-      <c r="G9" s="6">
-        <v>46656</v>
-      </c>
-      <c r="H9" s="7">
-        <f>G9/F9</f>
-        <v>1.9481928763560825E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>7055</v>
-      </c>
-      <c r="E10" s="13">
-        <v>9201</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <f>D10*C4</f>
-        <v>2716175</v>
-      </c>
-      <c r="E11" s="13">
-        <f>(E10/C5)*C4</f>
-        <v>177119.25</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11+E11</f>
-        <v>2893294.25</v>
-      </c>
-      <c r="G11" s="13">
-        <v>46680</v>
-      </c>
-      <c r="H11" s="7">
-        <f>G11/F11</f>
-        <v>1.6133858490196773E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8">
-        <f>(H9-H11)/H11</f>
-        <v>0.20751826200771503</v>
-      </c>
+      <c r="D128" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="18">
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F97AED8-FED1-4206-9D45-A997D3E17648}">
+  <dimension ref="F8:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
